--- a/03スプリントバックログ/Scrum1_スプリントバックログ 2.xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ 2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFF21AE-C86E-4DEF-8933-E59353760406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35B2D98-9153-4DD1-B4A6-704463B2C3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="0" windowWidth="20892" windowHeight="10908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="588" yWindow="1164" windowWidth="20892" windowHeight="10908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -327,6 +327,195 @@
     <t>重森</t>
     <rPh sb="0" eb="2">
       <t>シゲモリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施中</t>
+    <rPh sb="0" eb="3">
+      <t>ジッシチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未実装</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装中</t>
+    <rPh sb="0" eb="3">
+      <t>ジッソウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘画面のレイアウト</t>
+    <rPh sb="0" eb="4">
+      <t>セントウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃のダメージを計算する処理</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘画面の見た目を決める</t>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃の手段を選ぶ</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュダン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分、相手のモンスター配置位置を決める</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGMを決める</t>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技名、使用回数、威力を決める</t>
+    <rPh sb="0" eb="2">
+      <t>ワザメイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シヨウカイスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イリョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃順などを決める</t>
+  </si>
+  <si>
+    <t>攻撃を受けた時のダメージ数表示</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃の命中率を決める</t>
+    <rPh sb="3" eb="5">
+      <t>メイチュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃のクリティカル率を決める</t>
+    <rPh sb="9" eb="10">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦う、特技、アイテムなどコマンド選択する処理</t>
+    <rPh sb="0" eb="1">
+      <t>タタカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トクギ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃を受けた時や回復した時の処理</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -849,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -900,157 +1089,221 @@
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="39.9" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="8"/>
+      <c r="A4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="39.9" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1"/>
+      <c r="A5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="39.9" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="39.9" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="39.9" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="39.9" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="39.9" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="39.9" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="39.9" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="39.9" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="40.799999999999997" customHeight="1">
+    <row r="14" spans="1:6" ht="39.9" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="40.799999999999997" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="40.799999999999997" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/03スプリントバックログ/Scrum1_スプリントバックログ 2.xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ 2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35B2D98-9153-4DD1-B4A6-704463B2C3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78294B10-C1A9-4624-B4EF-6672148EE683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="588" yWindow="1164" windowWidth="20892" windowHeight="10908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="588" yWindow="1164" windowWidth="20892" windowHeight="10908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -516,6 +516,28 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦う、特技、アイテムなど選択して敵との戦闘をする画面</t>
+    <rPh sb="0" eb="1">
+      <t>タタカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トクギ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -941,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -991,7 +1013,9 @@
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="39.9" customHeight="1">
@@ -1040,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/03スプリントバックログ/Scrum1_スプリントバックログ 2.xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ 2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78294B10-C1A9-4624-B4EF-6672148EE683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E33B152-2654-4A6A-A498-C527EE6B4DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="588" yWindow="1164" windowWidth="20892" windowHeight="10908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -348,13 +348,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実装中</t>
-    <rPh sb="0" eb="3">
-      <t>ジッソウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>戦闘画面のレイアウト</t>
     <rPh sb="0" eb="4">
       <t>セントウガメン</t>
@@ -538,6 +531,46 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターン経過した時の処理</t>
+    <rPh sb="3" eb="5">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何日に大会があるかを決める</t>
+    <rPh sb="0" eb="2">
+      <t>ナンニチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイカイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -546,7 +579,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,6 +615,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -597,7 +637,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -642,11 +682,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -681,11 +785,321 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -696,6 +1110,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32CDDFAA-4A24-4DD3-B580-8A29AAED6D8D}" name="テーブル1" displayName="テーブル1" ref="A2:F16" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="A2:F16" xr:uid="{32CDDFAA-4A24-4DD3-B580-8A29AAED6D8D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F16">
+    <sortCondition ref="E2:E16"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{A01BC4D6-95FE-4D52-9323-F2F194C16A25}" name="詳細タスク" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{A99809F9-BDE0-4BBC-992E-07823D5F5C44}" name="タスクの概要" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{614B4784-3591-4ECE-B78B-510A20E0D4D2}" name="工数（人日）" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{FA04E598-4285-4870-A312-468DC1260F83}" name="担当" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{51E24667-BF68-4D89-AA5D-4A7D1FF31EF6}" name="状況_x000a_[実施・完了]" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{03B268CF-1A78-4C80-A005-18619B427016}" name="備考（進捗率）" dataDxfId="2" dataCellStyle="パーセント"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -963,7 +1395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1014,7 +1446,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1064,15 +1496,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" style="4" customWidth="1"/>
     <col min="4" max="4" width="26" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="4" customWidth="1"/>
@@ -1090,249 +1522,260 @@
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="39.9" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="39.9" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.9" customHeight="1">
+      <c r="A4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
+      <c r="B4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="39.9" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="39.9" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="C5" s="12"/>
       <c r="D5" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" ht="39.9" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="12"/>
       <c r="D6" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" ht="39.9" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="C7" s="12"/>
       <c r="D7" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="39.9" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="C8" s="12"/>
       <c r="D8" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" ht="39.9" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="12"/>
       <c r="D9" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="39.9" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="12"/>
       <c r="D10" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" ht="39.9" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="C11" s="12"/>
       <c r="D11" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" ht="39.9" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="C12" s="12"/>
       <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" ht="39.9" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="C13" s="12"/>
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" ht="39.9" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="C14" s="12"/>
       <c r="D14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" ht="40.799999999999997" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="C15" s="12"/>
       <c r="D15" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="40.799999999999997" customHeight="1">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
+      <c r="B16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/03スプリントバックログ/Scrum1_スプリントバックログ 2.xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ 2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E33B152-2654-4A6A-A498-C527EE6B4DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C3229D-D48E-433C-92CD-191C153B89D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
@@ -15,19 +15,10 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'スプリントバックログ (第2スプリント)'!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -750,7 +741,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -779,41 +770,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -839,7 +827,229 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -877,228 +1087,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1113,18 +1101,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32CDDFAA-4A24-4DD3-B580-8A29AAED6D8D}" name="テーブル1" displayName="テーブル1" ref="A2:F16" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32CDDFAA-4A24-4DD3-B580-8A29AAED6D8D}" name="テーブル1" displayName="テーブル1" ref="A2:F16" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
   <autoFilter ref="A2:F16" xr:uid="{32CDDFAA-4A24-4DD3-B580-8A29AAED6D8D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F16">
     <sortCondition ref="E2:E16"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A01BC4D6-95FE-4D52-9323-F2F194C16A25}" name="詳細タスク" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{A99809F9-BDE0-4BBC-992E-07823D5F5C44}" name="タスクの概要" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{614B4784-3591-4ECE-B78B-510A20E0D4D2}" name="工数（人日）" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{FA04E598-4285-4870-A312-468DC1260F83}" name="担当" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{51E24667-BF68-4D89-AA5D-4A7D1FF31EF6}" name="状況_x000a_[実施・完了]" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{03B268CF-1A78-4C80-A005-18619B427016}" name="備考（進捗率）" dataDxfId="2" dataCellStyle="パーセント"/>
+    <tableColumn id="1" xr3:uid="{A01BC4D6-95FE-4D52-9323-F2F194C16A25}" name="詳細タスク" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A99809F9-BDE0-4BBC-992E-07823D5F5C44}" name="タスクの概要" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{614B4784-3591-4ECE-B78B-510A20E0D4D2}" name="工数（人日）" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{FA04E598-4285-4870-A312-468DC1260F83}" name="担当" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{51E24667-BF68-4D89-AA5D-4A7D1FF31EF6}" name="状況_x000a_[実施・完了]" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{03B268CF-1A78-4C80-A005-18619B427016}" name="備考（進捗率）" dataDxfId="0" dataCellStyle="パーセント"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
@@ -1413,10 +1401,10 @@
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -1496,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1522,33 +1510,33 @@
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="39.9" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="39.9" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -1557,25 +1545,27 @@
       <c r="E3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="39.9" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="39.9" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -1584,14 +1574,14 @@
       <c r="B5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="39.9" customHeight="1">
       <c r="A6" s="8" t="s">
@@ -1600,14 +1590,14 @@
       <c r="B6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="39.9" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -1616,14 +1606,14 @@
       <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="39.9" customHeight="1">
       <c r="A8" s="8" t="s">
@@ -1632,14 +1622,14 @@
       <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="39.9" customHeight="1">
       <c r="A9" s="8" t="s">
@@ -1648,14 +1638,14 @@
       <c r="B9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="39.9" customHeight="1">
       <c r="A10" s="8" t="s">
@@ -1664,14 +1654,14 @@
       <c r="B10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="39.9" customHeight="1">
       <c r="A11" s="8" t="s">
@@ -1680,14 +1670,14 @@
       <c r="B11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="39.9" customHeight="1">
       <c r="A12" s="8" t="s">
@@ -1696,14 +1686,14 @@
       <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="39.9" customHeight="1">
       <c r="A13" s="8" t="s">
@@ -1712,14 +1702,16 @@
       <c r="B13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="39.9" customHeight="1">
       <c r="A14" s="8" t="s">
@@ -1728,14 +1720,16 @@
       <c r="B14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="40.799999999999997" customHeight="1">
       <c r="A15" s="8" t="s">
@@ -1744,30 +1738,30 @@
       <c r="B15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" ht="40.799999999999997" customHeight="1">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/03スプリントバックログ/Scrum1_スプリントバックログ 2.xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ 2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C3229D-D48E-433C-92CD-191C153B89D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B6BD91-8F19-4A89-946F-41EFE5DB663F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1484,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1595,9 +1595,11 @@
         <v>29</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="39.9" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -1743,9 +1745,11 @@
         <v>28</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="40.799999999999997" customHeight="1">
       <c r="A16" s="16" t="s">
@@ -1759,14 +1763,16 @@
         <v>28</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="18"/>
+        <v>32</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0.7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/03スプリントバックログ/Scrum1_スプリントバックログ 2.xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ 2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B6BD91-8F19-4A89-946F-41EFE5DB663F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259582BC-3B9E-4B6A-9213-992EEC028D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1484,7 +1484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1661,9 +1661,11 @@
         <v>28</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="39.9" customHeight="1">
       <c r="A11" s="8" t="s">
@@ -1693,9 +1695,11 @@
         <v>28</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="39.9" customHeight="1">
       <c r="A13" s="8" t="s">

--- a/03スプリントバックログ/Scrum1_スプリントバックログ 2.xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ 2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259582BC-3B9E-4B6A-9213-992EEC028D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15CBC4D-1947-4184-A1F0-86EABF2A7E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1484,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1579,9 +1579,11 @@
         <v>29</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="39.9" customHeight="1">
       <c r="A6" s="8" t="s">
@@ -1613,9 +1615,11 @@
         <v>29</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="39.9" customHeight="1">
       <c r="A8" s="8" t="s">
@@ -1645,9 +1649,11 @@
         <v>30</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="39.9" customHeight="1">
       <c r="A10" s="8" t="s">
@@ -1679,9 +1685,11 @@
         <v>28</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="39.9" customHeight="1">
       <c r="A12" s="8" t="s">

--- a/03スプリントバックログ/Scrum1_スプリントバックログ 2.xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ 2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15CBC4D-1947-4184-A1F0-86EABF2A7E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A426D9-BA81-4370-B307-C257654BE213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
@@ -15,17 +15,26 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'スプリントバックログ (第2スプリント)'!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -529,13 +538,6 @@
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4日</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1484,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1536,9 +1538,7 @@
       <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="8" t="s">
         <v>31</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="8" t="s">
@@ -1660,7 +1660,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="8" t="s">
